--- a/combin_vs_baseline_scores.xlsx
+++ b/combin_vs_baseline_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe T-B\Documents\PythonProject\GTI770_Labo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88B2C4-7CB8-4B7D-860E-E1ADD97DECAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F716655-668D-44FF-A833-336FEF490A5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,16 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>baseline</t>
-  </si>
-  <si>
     <t>combinaison</t>
   </si>
   <si>
     <t>voting = hard</t>
   </si>
   <si>
-    <t>model = svm</t>
+    <t>baseline(svm)</t>
+  </si>
+  <si>
+    <t>C=1, gamma=10, kernel='rbf'</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>

--- a/combin_vs_baseline_scores.xlsx
+++ b/combin_vs_baseline_scores.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe T-B\Documents\PythonProject\GTI770_Labo1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88B2C4-7CB8-4B7D-860E-E1ADD97DECAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="4100" windowWidth="14380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
   <si>
     <t>Accuracy</t>
   </si>
@@ -28,40 +28,35 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>baseline</t>
+    <t>baseline(svm)</t>
+  </si>
+  <si>
+    <t>C=1, gamma=10, kernel='rbf'</t>
   </si>
   <si>
     <t>combinaison</t>
   </si>
   <si>
     <t>voting = hard</t>
-  </si>
-  <si>
-    <t>model = svm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,28 +72,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -364,83 +350,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14"/>
+    <col customWidth="1" max="2" min="2" width="28.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2850570114022805</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2626440303532416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
+      <c r="C3" t="n">
+        <v>0.2770554110822164</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.250891918364052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>